--- a/political_parties.xlsx
+++ b/political_parties.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -36,48 +36,18 @@
     <t>PNL</t>
   </si>
   <si>
-    <t>National Liberal Party (Partidul Național Liberal)</t>
-  </si>
-  <si>
-    <t>The National Liberal Party (PNL) is a major political party in Romania with a center-right ideology. It has a long history in Romanian politics.</t>
-  </si>
-  <si>
     <t>PSD</t>
   </si>
   <si>
-    <t>Social Democratic Party (Partidul Social Democrat)</t>
-  </si>
-  <si>
-    <t>The Social Democratic Party (PSD) is one of the largest political parties in Romania, with a center-left ideology. It has been influential in Romanian politics.</t>
-  </si>
-  <si>
     <t>USR</t>
   </si>
   <si>
-    <t>Save Romania Union (Uniunea Salvați România)</t>
-  </si>
-  <si>
-    <t>The Save Romania Union (USR) is a liberal political party in Romania, advocating for transparency, anti-corruption measures, and European integration.</t>
-  </si>
-  <si>
     <t>AUR</t>
   </si>
   <si>
-    <t>Alliance for the Union of Romanians (Alianța pentru Unirea Românilor)</t>
-  </si>
-  <si>
-    <t>The Alliance for the Union of Romanians (AUR) is a nationalist political party in Romania, emphasizing traditional values and sovereignty.</t>
-  </si>
-  <si>
     <t>PMP</t>
   </si>
   <si>
-    <t>People's Movement Party (Partidul Mișcarea Populară)</t>
-  </si>
-  <si>
-    <t>The People's Movement Party (PMP) is a center-right political party in Romania, advocating for conservative values and national interests.</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/d/d4/Pnl_logo_4.png</t>
   </si>
   <si>
@@ -91,24 +61,218 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTIQ2G8ojXH1kNT582fJTtLTbTKuyycltRbWSct9HQvqQ&amp;s</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Ideology</t>
+  </si>
+  <si>
+    <t>Partidul Național Liberal</t>
+  </si>
+  <si>
+    <t>Partidul Național Liberal (abreviat PNL) este un partid politic istoric parlamentar din România, înființat pentru prima dată sub aceeași denumire la data de 24 mai 1875 în Principatele Unite ale Moldovei și Țării Românești și reînființat ulterior după Revoluția Română din 1989, în ianuarie 1990 de Radu Câmpeanu și alți foști membrii supraviețuitori ai Partidului Național Liberal (PNL) interbelic și postbelic[e][f] (înainte ca acesta să fie desființat și interzis de comuniști în 1947 pe toată durata comunismului în România, ca alte partide istorice, e.g., Partidul Național-Țărănesc sau PN-Ț/PNȚ pe scurt). În prezent, este unul dintre principalele partide politice din România și totodată cea mai veche formațiune politică din țară precum și unul dintre cele mai vechi partide politice din Europa și din familia partidelor liberale europene, conform primei date de înființare a acestuia.</t>
+  </si>
+  <si>
+    <t>Centru-dreapta</t>
+  </si>
+  <si>
+    <t>Conservatorism social, Creștin democrație, Populism de dreapta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partidul Social Democrat </t>
+  </si>
+  <si>
+    <t>Partidul Social Democrat (PSD) este cel mai mare partid politic parlamentar din România, reprezentant al social-democrației în Parlamentul României. PSD este alături de aripa democrat-liberală (fostul PDL), care a fuzionat în cadrul Partidului Național Liberal (PNL) în 2014, formațiunea succesoare a Frontul Salvării Naționale (FSN), ulterior Frontul Democrat al Salvarii Naționale (FDSN), respectiv Partidul Democrației Sociale în România (PDSR), care se consideră, totodată, continuatoarea mișcării social-democrate (i.e., Partidul Social Democrat Român sau PSDR pe scurt, partid istoric din perioada interbelică) de dinaintea instaurării regimului comunist, deși FSN este, de fapt, continuatorul Partidului Comunist Român (PCR), cu foști membrii fondatori provenind din primul respectiv cel de-al doilea eșalon al acestuia din 1990 până în prezent.</t>
+  </si>
+  <si>
+    <t>Centru-stânga</t>
+  </si>
+  <si>
+    <t>Uniunea Salvați România</t>
+  </si>
+  <si>
+    <t>Europenism, Liberalism, Liberalism economic</t>
+  </si>
+  <si>
+    <t>Uniunea Salvați România (abreviat USR) este un partid politic parlamentar liberal din România, în prezent al treilea cel mai mare partid din ​​Parlament în urma alegerilor legislative din 2020. Partidul a fost fondat în urma succesului partidului Uniunea Salvați Bucureștiul (USB) la alegerile locale din 2016. După ce a fost înregistrat oficial ca partid politic în 2016, s-a unit cu partidele locale Uniunea Salvați Bucureștiul (USB) și Uniunea pentru Codlea (UpC), obținând astfel cea mai mare parte a bazei sale de membri de la cele două partide.</t>
+  </si>
+  <si>
+    <t>Alianța pentru Unirea Românilor</t>
+  </si>
+  <si>
+    <t>Dreapta spre extrema dreaptă</t>
+  </si>
+  <si>
+    <t>Naționalism românesc, Unionism, Euroscepticism, Populism de dreapta</t>
+  </si>
+  <si>
+    <t>Conservatorism social, Euroscepticism moderat, Naționalism de stânga, Populism de stânga</t>
+  </si>
+  <si>
+    <t>Alianța pentru Unirea Românilor (abreviat AUR) este un partid politic din România. Partidul este considerat a fi de dreapta sau extremă dreaptă, promovând o retorică antimaghiară, antioccidentală, antiglobalistă, eurosceptică și iredentistă.
+Programul partidului AUR este caracteristică populismului de dreapta, având în prim plan mesaje fundamentalist creștine[34][40], antiavort[41], antisistem⁠(en)[traduceți][34][40], homofobe[40][41][42], xenofobe[34], anti-imigrație[34][41] și antisemite.</t>
+  </si>
+  <si>
+    <t>Partidul Mișcarea Populară</t>
+  </si>
+  <si>
+    <t>Conservatorism social, Creștin democrație, Conservatorism național, Unionism</t>
+  </si>
+  <si>
+    <t>Partidul Mișcarea Populară (PMP) este un partid politic, actualmente reprezentant în Parlamentul European, din România, lansat de Fundația Mișcarea Populară, creat la inițiativa fostului președinte al statului, Traian Băsescu, după ce susținătorii săi au părăsit Partidul Democrat Liberal (PDL). A avut grup parlamentar în Parlament în legislatura 2016–2020 a Camerei Deputaților și Senatului.</t>
+  </si>
+  <si>
+    <t>Uniunea Democrată Maghiară din România</t>
+  </si>
+  <si>
+    <t>UDMR</t>
+  </si>
+  <si>
+    <t>Regionalism, Liberalism conservator, Europenism</t>
+  </si>
+  <si>
+    <t>Reînnoim Proiectul European al României</t>
+  </si>
+  <si>
+    <t>REPER</t>
+  </si>
+  <si>
+    <t>Uniunea Democrată Maghiară din România (UDMR; în maghiară Romániai Magyar Demokrata Szövetség, RMDSZ) este o organizație politică din România, fondată pentru a reprezenta interesele comunității maghiare. În 2007, uniunea a devenit membră a Partidului Popular European (PPE), deci se consideră un partid de centru-dreapta. Începând cu data de 23 decembrie 2020, UDMR/RMDSZ participă la guvernare (Guvernul Florin Cîțu și Guvernul Nicolae Ciucă) și este astfel a treia forță guvernamentală din România. UDMR/RMDSZ a mai participat și la guvernările CDR din 1996-2000, guvernarea Tăriceanu din 2004-2008, guvernarea Boc II din 2009-2012, Guvernul Ungureanu din 2012, și Guvernarea Ponta din 2014. Din iunie 2023, este în opoziție față de Guvernul Marcel Ciolacu compus din PSD și PNL, pentru care parlamentarii UDMR/RMDSZ nu au votat.</t>
+  </si>
+  <si>
+    <t>Reînnoim Proiectul European al României (abreviat REPER) este un partid politic pro-european din România fondat de fostul președinte al Uniunea Salvați România (USR) precum și de fostul premier Dacian Cioloș și alți 4 europarlamentari, anunțarea lui fiind făcută în iunie 2022, iar înregistrarea oficială în Registrul Partidelor fiind făcută în august 2023. Partidul a fost desprins din Uniunea Salvați România (USR) și este condus de către Ramona Strugariu și Dragoș Pîslaru, în calitate de copreședinți. De asemenea, partidul este asociat în mare parte cu fostul premier și președinte al USR Dacian Cioloș, care a ales să nu ocupe nicio funcție în conducerea partidului.</t>
+  </si>
+  <si>
+    <t>https://www.pressalert.ro/wp-content/uploads/2012/10/udmr-logo.jpg</t>
+  </si>
+  <si>
+    <t>https://partidulreper.ro/wp-content/uploads/2023/07/social-share.png</t>
+  </si>
+  <si>
+    <t>Centru</t>
+  </si>
+  <si>
+    <t>Liberalism social, Europenism, Tehnocrație</t>
+  </si>
+  <si>
+    <t>PUSL</t>
+  </si>
+  <si>
+    <t>Partidul Umanist Social Liberal</t>
+  </si>
+  <si>
+    <t>Partidul Umanist Social Liberal (abreviat PUSL, în trecut PPU-SL, i.e. Partidul Puterii Umaniste-Social Liberal) este un partid politic parlamentar din România. Acesta a fost înființat în 2015, de către membrii Partidului Conservator (PC) care nu doreau fuziunea cu Partidul Liberal Reformator (PLR), condus de Călin Popescu-Tăriceanu.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/ro/c/c1/Logo_Partidul_Umanist_Social_Liberal.png</t>
+  </si>
+  <si>
+    <t>Umanism pragmatic, Liberalism clasic, Protecționism, Populism</t>
+  </si>
+  <si>
+    <t>Forța Dreptei</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>Liberalism conservator, Creștin-democrație</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/6/6b/Sigla_Forta_Dreptei.jpg/150px-Sigla_Forta_Dreptei.jpg</t>
+  </si>
+  <si>
+    <t>S.O.S. România</t>
+  </si>
+  <si>
+    <t>S.O.S.</t>
+  </si>
+  <si>
+    <t>S.O.S. România este un partid politic din România populist de dreapta și naționalist. Partidul a fost fondat în noiembrie 2021 de către Marcel Viziteu, Adeluța și Gabriel Gib, ultimul fiind fost membru al Partidului Socialist Român (PSR). În orice caz, a devenit cunoscut pe scena politică din România în mai 2022, după ce senatorul Diana Iovanovici-Șoșoacă, aleasă pe listele Alianței pentru Unirea Românilor (AUR), s-a alăturat partidului, și mai târziu a devenit liderul lui.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/26/SOS_Romania_logo.svg/150px-SOS_Romania_logo.svg.png</t>
+  </si>
+  <si>
+    <t>Extrema dreaptă</t>
+  </si>
+  <si>
+    <t>Naționalism românesc, Populism de dreapta, Nativism, Iredentism românesc, Conservatorism social, Euroscepticism</t>
+  </si>
+  <si>
+    <t>Partidul România Mare (PRM), în trecut și Partidul Popular România Mare - PPRM) este un partid politic din România, adesea considerat de extremă-dreaptă. A fost membru al fostului grup europarlamentar Identitate, Tradiție, Suveranitate. Fondatorul partidului a fost Corneliu Vadim Tudor. Oficioasele partidului sunt săptămânalul Revista România Mare și ziarul Tricolorul. Alianța politică Blocul Identității Naționale în Europa (BINE), formată din Partidul România Unită (PRU), Partidul România Mare (PRM) și Noua Dreaptă (ND) a fost anunțată în 2017.</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>Partidul România Mare</t>
+  </si>
+  <si>
+    <t>https://partidulromaniamare.ro/wp-content/uploads/logo-PRM.png</t>
+  </si>
+  <si>
+    <t>Conservatorism național, Naționalism românesc, Euroscepticism</t>
+  </si>
+  <si>
+    <t>PRO România (abreviat PRO) este un partid social-democrat din România înființat în anul 2018. A luat ființă la inițiativa fostului prim-ministru Victor Ponta de a crea o formațiune pentru membrii PSD nemulțumiți de acțiunile președinției lui Liviu Dragnea în PSD.</t>
+  </si>
+  <si>
+    <t>PRO România</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/en/thumb/6/6e/PRO_Romania_logo_2019.svg/1200px-PRO_Romania_logo_2019.svg.png</t>
+  </si>
+  <si>
+    <t>Social-democrație, Conservatorism social</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Partidul Națiune Oameni Împreună</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOI</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSv2Ksm__PTEY-njgYbNbdmeI9N8h9fcGQjXQ&amp;s</t>
+  </si>
+  <si>
+    <t>Conservatorism social, Naționalism de stânga, Izolaționism</t>
+  </si>
+  <si>
+    <t>Partidul Verde (România)</t>
+  </si>
+  <si>
+    <t>Partidul Verde – Verzii (PV) este un partid politic de orientare ecologistă din România. În prezent este condus de copreședinții Marius Lazăr și Lavinia Cosma. Partidul Verde este singurul partid politic din România membru al Verzilor Europeni. Este membru cu drepturi depline în European Green Party (EGP), reprezentat prin Grupul Verzilor în Parlamentul European. Partidul Verde din România are un vot în cadrul Consiliului EGP, forul lărgit de conducere al Verzilor Europeni, care se întrunește de două ori pe an.</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Sigla_Verzii_2024.webp/330px-Sigla_Verzii_2024.webp.png</t>
+  </si>
+  <si>
+    <t>Centru spre centru-stânga</t>
+  </si>
+  <si>
+    <t>Politică verde, Pro-europenism, Anti-corupție</t>
+  </si>
+  <si>
+    <t>Founded Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,16 +295,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" activeCellId="1" sqref="L14 L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,75 +601,333 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1990</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1989</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>2016</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2019</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E6">
+        <v>2014</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>1989</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>1989</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>2015</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10">
+        <v>2021</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11">
+        <v>2021</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>1991</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -518,8 +937,17 @@
     <hyperlink ref="D4" r:id="rId3"/>
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>